--- a/regionalizacao/tests/data/test_PtrfFromToSpreadsheet.xlsx
+++ b/regionalizacao/tests/data/test_PtrfFromToSpreadsheet.xlsx
@@ -20,38 +20,22 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t xml:space="preserve">codesc</t>
   </si>
   <si>
-    <t xml:space="preserve">escola</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dre</t>
-  </si>
-  <si>
     <t xml:space="preserve">vlrepasse</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CEI - ALOYSIO DE MENEZES GREENHALGH, VER.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BUTANTÃ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CEI - ANTONIO JOAO ABDALLA, DR.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
-    <numFmt numFmtId="166" formatCode="000000"/>
-    <numFmt numFmtId="167" formatCode="0.00"/>
+    <numFmt numFmtId="166" formatCode="0.00"/>
   </numFmts>
   <fonts count="6">
     <font>
@@ -141,16 +125,12 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="4" fillId="2" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -166,11 +146,7 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="true"/>
     </xf>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="true"/>
-    </xf>
-    <xf numFmtId="167" fontId="4" fillId="2" borderId="0" xfId="20" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="4" fillId="2" borderId="0" xfId="20" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -252,10 +228,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:AMJ3"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D4" activeCellId="0" sqref="D4"/>
+      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -263,45 +239,29 @@
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="11.52"/>
   </cols>
   <sheetData>
-    <row r="1" s="4" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" s="3" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>3</v>
-      </c>
+      <c r="AMI1" s="0"/>
+      <c r="AMJ1" s="0"/>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="5" t="n">
+      <c r="A2" s="4" t="n">
         <v>400003</v>
       </c>
-      <c r="B2" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="7" t="n">
+      <c r="B2" s="5" t="n">
         <v>2.55</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="5" t="n">
+      <c r="A3" s="4" t="n">
         <v>400010</v>
       </c>
-      <c r="B3" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" s="7" t="n">
+      <c r="B3" s="5" t="n">
         <v>1.99</v>
       </c>
     </row>
